--- a/app/record/prediction_records_20250103.xlsx
+++ b/app/record/prediction_records_20250103.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P6"/>
+  <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -815,6 +815,486 @@
         <v>379.5379943847656</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2025-01-03 17:49:52</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>600104.SH</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2022-01-04</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2025-01-03</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>0.038</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.026</v>
+      </c>
+      <c r="H7" t="n">
+        <v>24.949</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2.359</v>
+      </c>
+      <c r="J7" t="n">
+        <v>17.82299995422363</v>
+      </c>
+      <c r="K7" t="n">
+        <v>17.9060001373291</v>
+      </c>
+      <c r="L7" t="n">
+        <v>18.01600074768066</v>
+      </c>
+      <c r="M7" t="n">
+        <v>18.17300033569336</v>
+      </c>
+      <c r="N7" t="n">
+        <v>18.32399940490723</v>
+      </c>
+      <c r="O7" t="n">
+        <v>18.43899917602539</v>
+      </c>
+      <c r="P7" t="n">
+        <v>18.49300003051758</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2025-01-03 17:49:52</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>600104.SH</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2022-01-04</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2025-01-03</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>CNN</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>0.037</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.026</v>
+      </c>
+      <c r="H8" t="n">
+        <v>27.995</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2.359</v>
+      </c>
+      <c r="J8" t="n">
+        <v>18.00699996948242</v>
+      </c>
+      <c r="K8" t="n">
+        <v>17.90800094604492</v>
+      </c>
+      <c r="L8" t="n">
+        <v>17.98299980163574</v>
+      </c>
+      <c r="M8" t="n">
+        <v>18.15500068664551</v>
+      </c>
+      <c r="N8" t="n">
+        <v>18.27499961853027</v>
+      </c>
+      <c r="O8" t="n">
+        <v>18.26099967956543</v>
+      </c>
+      <c r="P8" t="n">
+        <v>18.27700042724609</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2025-01-03 17:52:01</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>601127.SH</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2022-01-04</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2025-01-03</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>0.258</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.211</v>
+      </c>
+      <c r="H9" t="n">
+        <v>31.816</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="J9" t="n">
+        <v>66.41000366210938</v>
+      </c>
+      <c r="K9" t="n">
+        <v>66.29599761962891</v>
+      </c>
+      <c r="L9" t="n">
+        <v>66.14900207519531</v>
+      </c>
+      <c r="M9" t="n">
+        <v>65.96099853515625</v>
+      </c>
+      <c r="N9" t="n">
+        <v>65.82499694824219</v>
+      </c>
+      <c r="O9" t="n">
+        <v>65.68199920654297</v>
+      </c>
+      <c r="P9" t="n">
+        <v>65.55899810791016</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2025-01-03 17:52:01</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>601127.SH</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2022-01-04</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2025-01-03</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>CNN</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>0.138</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.111</v>
+      </c>
+      <c r="H10" t="n">
+        <v>18.447</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="J10" t="n">
+        <v>166.8079986572266</v>
+      </c>
+      <c r="K10" t="n">
+        <v>164.5650024414062</v>
+      </c>
+      <c r="L10" t="n">
+        <v>152.5549926757812</v>
+      </c>
+      <c r="M10" t="n">
+        <v>148.1430053710938</v>
+      </c>
+      <c r="N10" t="n">
+        <v>152.7989959716797</v>
+      </c>
+      <c r="O10" t="n">
+        <v>154.0820007324219</v>
+      </c>
+      <c r="P10" t="n">
+        <v>145.3390045166016</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2025-01-03 17:56:34</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002594.SZ</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2022-01-04</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2025-01-03</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>0.054</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.042</v>
+      </c>
+      <c r="H11" t="n">
+        <v>6.318</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1.787</v>
+      </c>
+      <c r="J11" t="n">
+        <v>275.0130004882812</v>
+      </c>
+      <c r="K11" t="n">
+        <v>274.5079956054688</v>
+      </c>
+      <c r="L11" t="n">
+        <v>272.25</v>
+      </c>
+      <c r="M11" t="n">
+        <v>269.7349853515625</v>
+      </c>
+      <c r="N11" t="n">
+        <v>266.9540100097656</v>
+      </c>
+      <c r="O11" t="n">
+        <v>264.0830078125</v>
+      </c>
+      <c r="P11" t="n">
+        <v>260.8840026855469</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2025-01-03 17:56:34</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002594.SZ</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2022-01-04</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2025-01-03</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>CNN</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>0.056</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.044</v>
+      </c>
+      <c r="H12" t="n">
+        <v>6.66</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1.787</v>
+      </c>
+      <c r="J12" t="n">
+        <v>268.1990051269531</v>
+      </c>
+      <c r="K12" t="n">
+        <v>265.7160034179688</v>
+      </c>
+      <c r="L12" t="n">
+        <v>266.8059997558594</v>
+      </c>
+      <c r="M12" t="n">
+        <v>251.7610015869141</v>
+      </c>
+      <c r="N12" t="n">
+        <v>265.2210083007812</v>
+      </c>
+      <c r="O12" t="n">
+        <v>262.3089904785156</v>
+      </c>
+      <c r="P12" t="n">
+        <v>275.0809936523438</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2025-01-03 18:00:11</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>NIO</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2022-01-04</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2025-01-03</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>0.058</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.056</v>
+      </c>
+      <c r="H13" t="n">
+        <v>95.837</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.823</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1.504999995231628</v>
+      </c>
+      <c r="K13" t="n">
+        <v>1.453999996185303</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1.414999961853027</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.379999995231628</v>
+      </c>
+      <c r="N13" t="n">
+        <v>1.345000028610229</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.297000050544739</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1.259999990463257</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2025-01-03 18:00:11</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>NIO</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>2022-01-04</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2025-01-03</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>CNN</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H14" t="n">
+        <v>35.692</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.823</v>
+      </c>
+      <c r="J14" t="n">
+        <v>3.072000026702881</v>
+      </c>
+      <c r="K14" t="n">
+        <v>3.138999938964844</v>
+      </c>
+      <c r="L14" t="n">
+        <v>4.03000020980835</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4.153999805450439</v>
+      </c>
+      <c r="N14" t="n">
+        <v>4.36299991607666</v>
+      </c>
+      <c r="O14" t="n">
+        <v>5.203999996185303</v>
+      </c>
+      <c r="P14" t="n">
+        <v>5.348000049591064</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
